--- a/src/test/resources/model.session.ImportSessionTest/CS2103-testsheet.xlsx
+++ b/src/test/resources/model.session.ImportSessionTest/CS2103-testsheet.xlsx
@@ -1,27 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+  <si>
+    <t>client name</t>
+  </si>
+  <si>
+    <t>client phone</t>
+  </si>
+  <si>
+    <t>client email</t>
+  </si>
+  <si>
+    <t>vehicle number</t>
+  </si>
+  <si>
+    <t>employee name</t>
+  </si>
+  <si>
+    <t>employee phone</t>
+  </si>
+  <si>
+    <t>employee email</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>empty column</t>
+  </si>
+  <si>
+    <t>corrupt</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>wut</t>
+  </si>
+  <si>
+    <t>JD</t>
+  </si>
+  <si>
+    <t>jd@gmail.com</t>
+  </si>
+  <si>
+    <t>SXX1234X</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>jim@gmail.com</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Haha</t>
+  </si>
+  <si>
+    <t>whew</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>js@gmail.com</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>maya@gmail.com</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -35,31 +127,154 @@
     <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="2">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="B1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.1234567E7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8.7654321E7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.1234567E7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1">
+        <v>8.7654321E7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>